--- a/biology/Zoologie/Ephemerella_ignita/Ephemerella_ignita.xlsx
+++ b/biology/Zoologie/Ephemerella_ignita/Ephemerella_ignita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ephemerella ignita est une espèce d'insectes de l'ordre des éphéméroptères et fait partie de la famille des éphémérellidés.
 Synonyme actuel (selon ITIS)
@@ -513,7 +525,9 @@
           <t>Caractéristiques physiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nymphe : de 6 à 9 mm pour le corps
 Imago :
@@ -547,7 +561,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se trouve partout : sur toutes les rivières d'Europe de l'Ouest, des têtes de bassin aux cours inférieurs.
 </t>
@@ -578,7 +594,9 @@
           <t>Éclosion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir de juin et jusqu'en novembre, mais surtout les après-midi de juillet et d'août.
 </t>
@@ -609,7 +627,9 @@
           <t>Le coin des moucheurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ephemerella ignita est la blue winged olive (B.W.O.) des anglophones.
 Attention : "olive à ailes bleues" est une appellation pouvant prêter à confusion. Si la couleur verdâtre est bien là sur le subimago, l'imago, lui, a un corps variant de l'orangé au brun-rouge.
